--- a/Utils/mapa.xlsx
+++ b/Utils/mapa.xlsx
@@ -14,15 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+  <si>
+    <t>-</t>
+  </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>l</t>
   </si>
   <si>
     <t>W</t>
   </si>
   <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
     <t>J</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>31*</t>
+  </si>
+  <si>
+    <t>.20</t>
+  </si>
+  <si>
+    <t>21*</t>
   </si>
 </sst>
 </file>
@@ -400,7 +424,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -419,6 +443,92 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -556,7 +666,7 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,19 +717,19 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,16 +741,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,7 +768,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,7 +781,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -692,6 +802,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1008,18 +1151,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:AB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="12" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="16384" width="2.375" customWidth="1"/>
+    <col min="1" max="12" width="2.375" customWidth="1"/>
+    <col min="13" max="13" width="5.7" customWidth="1"/>
+    <col min="14" max="22" width="3.9" customWidth="1"/>
+    <col min="23" max="32" width="3.35833333333333" customWidth="1"/>
+    <col min="33" max="16384" width="2.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" ht="12.75" spans="1:13">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>0</v>
@@ -1046,8 +1193,11 @@
       <c r="K1" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1055,7 +1205,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -1064,13 +1214,33 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="N2" s="7"/>
+      <c r="O2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="8">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>31</v>
+      </c>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="12"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="12"/>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="4"/>
@@ -1078,19 +1248,37 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="H3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="9">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="13"/>
+      <c r="V3" s="9"/>
+      <c r="W3"/>
+      <c r="AB3" s="13"/>
+    </row>
+    <row r="4" ht="12.75" spans="1:28">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="4"/>
       <c r="D4" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4"/>
       <c r="G4" s="1">
@@ -1100,28 +1288,248 @@
       <c r="I4" s="5"/>
       <c r="J4" s="6"/>
       <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="N4" s="10"/>
+      <c r="O4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="14"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="17"/>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4"/>
       <c r="G5" s="1">
         <v>3</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="6"/>
       <c r="K5" s="5"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="8">
+        <v>30</v>
+      </c>
+      <c r="Q5"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="12"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="12"/>
+    </row>
+    <row r="6" spans="14:28">
+      <c r="N6" s="9">
+        <v>20</v>
+      </c>
+      <c r="O6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <v>21</v>
+      </c>
+      <c r="T6" s="13"/>
+      <c r="V6" s="9"/>
+      <c r="W6"/>
+      <c r="AB6" s="13"/>
+    </row>
+    <row r="7" ht="12.75" spans="14:28">
+      <c r="N7" s="10"/>
+      <c r="O7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="14"/>
+      <c r="V7" s="9"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="AB7" s="13"/>
+    </row>
+    <row r="8" spans="14:28">
+      <c r="N8" s="7"/>
+      <c r="O8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="8">
+        <v>21</v>
+      </c>
+      <c r="Q8">
+        <v>30</v>
+      </c>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="12"/>
+      <c r="V8" s="9"/>
+      <c r="AB8" s="13"/>
+    </row>
+    <row r="9" spans="14:28">
+      <c r="N9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="13"/>
+      <c r="V9" s="9"/>
+      <c r="AB9" s="13"/>
+    </row>
+    <row r="10" ht="12.75" spans="14:28">
+      <c r="N10" s="10"/>
+      <c r="O10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="11">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="14"/>
+      <c r="V10" s="9"/>
+      <c r="AB10" s="13"/>
+    </row>
+    <row r="11" spans="14:28">
+      <c r="N11" s="7"/>
+      <c r="O11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11">
+        <v>31</v>
+      </c>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="12"/>
+      <c r="V11" s="9"/>
+      <c r="AB11" s="13"/>
+    </row>
+    <row r="12" spans="14:28">
+      <c r="N12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="13"/>
+      <c r="V12" s="9"/>
+      <c r="AB12" s="13"/>
+    </row>
+    <row r="13" ht="12.75" spans="14:28">
+      <c r="N13" s="10"/>
+      <c r="O13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P13" s="11">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>22</v>
+      </c>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="14"/>
+      <c r="V13" s="9"/>
+      <c r="AB13" s="13"/>
+    </row>
+    <row r="14" spans="14:28">
+      <c r="N14" s="7"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="12"/>
+      <c r="V14" s="9"/>
+      <c r="AB14" s="13"/>
+    </row>
+    <row r="15" spans="14:28">
+      <c r="N15" s="9"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="T15" s="13"/>
+      <c r="V15" s="9"/>
+      <c r="AB15" s="13"/>
+    </row>
+    <row r="16" ht="12.75" spans="14:28">
+      <c r="N16" s="10"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="14"/>
+      <c r="V16" s="9"/>
+      <c r="AB16" s="13"/>
+    </row>
+    <row r="17" spans="14:28">
+      <c r="N17" s="7"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="12"/>
+      <c r="V17" s="9"/>
+      <c r="AB17" s="13"/>
+    </row>
+    <row r="18" spans="14:28">
+      <c r="N18" s="9"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="T18" s="13"/>
+      <c r="V18" s="9"/>
+      <c r="AB18" s="13"/>
+    </row>
+    <row r="19" ht="12.75" spans="14:28">
+      <c r="N19" s="10"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="14"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
